--- a/Документация/Профиль.xlsx
+++ b/Документация/Профиль.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -220,6 +220,33 @@
   </si>
   <si>
     <t>Просмотр купленных билетов</t>
+  </si>
+  <si>
+    <t>Название транзакции</t>
+  </si>
+  <si>
+    <t>fill_find_flight</t>
+  </si>
+  <si>
+    <t>click_sing_off</t>
+  </si>
+  <si>
+    <t>viewing_receipts</t>
+  </si>
+  <si>
+    <t>insert_payment_info</t>
+  </si>
+  <si>
+    <t>choose_filght</t>
+  </si>
+  <si>
+    <t>cancel_reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Точность </t>
+  </si>
+  <si>
+    <t>Отладочный тест (20 минут)</t>
   </si>
 </sst>
 </file>
@@ -902,7 +929,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -973,14 +1000,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="36" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="4" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1790,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1835,7 @@
     <col min="6" max="6" width="36.85546875" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="35" customWidth="1"/>
@@ -3035,7 +3068,7 @@
       <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3294,10 +3327,12 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="F33" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -3325,12 +3360,16 @@
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -3364,17 +3403,19 @@
         <v>-2.9268292682926855E-2</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="37">
-        <f>C35/6</f>
-        <v>68.333333333333329</v>
+      <c r="F35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="36">
+        <f>C35/3</f>
+        <v>136.66666666666666</v>
       </c>
       <c r="H35" s="30">
-        <v>63</v>
-      </c>
-      <c r="I35" s="29">
+        <v>134</v>
+      </c>
+      <c r="I35" s="40">
         <f>1-G35/H35</f>
-        <v>-8.4656084656084651E-2</v>
+        <v>-1.990049751243772E-2</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -3409,17 +3450,19 @@
         <v>-8.4615384615384537E-2</v>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="37">
-        <f t="shared" ref="G36:G41" si="15">C36/6</f>
-        <v>43.333333333333336</v>
+      <c r="F36" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="36">
+        <f t="shared" ref="G36:G41" si="15">C36/3</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="H36" s="30">
-        <v>42</v>
-      </c>
-      <c r="I36" s="29">
-        <f t="shared" ref="I36:I41" si="16">1-G36/H36</f>
-        <v>-3.1746031746031855E-2</v>
+        <v>85</v>
+      </c>
+      <c r="I36" s="40">
+        <f t="shared" ref="I36:I40" si="16">1-G36/H36</f>
+        <v>-1.9607843137255054E-2</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -3454,17 +3497,19 @@
         <v>3.4615384615384603E-2</v>
       </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="37">
+      <c r="F37" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="36">
         <f t="shared" si="15"/>
-        <v>43.333333333333336</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="H37" s="30">
-        <v>42</v>
-      </c>
-      <c r="I37" s="29">
+        <v>86</v>
+      </c>
+      <c r="I37" s="40">
         <f t="shared" si="16"/>
-        <v>-3.1746031746031855E-2</v>
+        <v>-7.7519379844961378E-3</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -3499,17 +3544,19 @@
         <v>-2.9411764705882248E-2</v>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="37">
+      <c r="F38" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="36">
         <f t="shared" si="15"/>
-        <v>28.333333333333332</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="H38" s="30">
-        <v>27</v>
-      </c>
-      <c r="I38" s="29">
+        <v>55</v>
+      </c>
+      <c r="I38" s="40">
         <f t="shared" si="16"/>
-        <v>-4.9382716049382713E-2</v>
+        <v>-3.0303030303030276E-2</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -3544,17 +3591,19 @@
         <v>6.2499999999999778E-3</v>
       </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="37">
+      <c r="F39" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="36">
         <f t="shared" si="15"/>
-        <v>26.666666666666668</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="H39" s="30">
-        <v>29</v>
-      </c>
-      <c r="I39" s="29">
+        <v>52</v>
+      </c>
+      <c r="I39" s="40">
         <f t="shared" si="16"/>
-        <v>8.0459770114942541E-2</v>
+        <v>-2.5641025641025772E-2</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -3589,17 +3638,19 @@
         <v>-4.2857142857142927E-2</v>
       </c>
       <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="37">
-        <f>C40/6</f>
-        <v>11.666666666666666</v>
+      <c r="F40" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="36">
+        <f t="shared" si="15"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="H40" s="30">
-        <v>13</v>
-      </c>
-      <c r="I40" s="29">
-        <f t="shared" si="16"/>
-        <v>0.10256410256410264</v>
+        <v>24</v>
+      </c>
+      <c r="I40" s="40">
+        <f>1-G40/H40</f>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -3634,17 +3685,19 @@
         <v>-2.9268292682926855E-2</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="37">
+      <c r="F41" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="36">
         <f t="shared" si="15"/>
-        <v>68.333333333333329</v>
+        <v>136.66666666666666</v>
       </c>
       <c r="H41" s="30">
-        <v>56</v>
-      </c>
-      <c r="I41" s="29">
-        <f t="shared" si="16"/>
-        <v>-0.22023809523809512</v>
+        <v>136</v>
+      </c>
+      <c r="I41" s="40">
+        <f>1-G41/H41</f>
+        <v>-4.9019607843137081E-3</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -3671,7 +3724,7 @@
         <f>SUM(B35:B41)</f>
         <v>1784</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="37">
         <f>SUM(C35:C41)</f>
         <v>1740</v>
       </c>
@@ -3679,7 +3732,7 @@
         <f t="shared" si="14"/>
         <v>-2.5287356321838983E-2</v>
       </c>
-      <c r="E42" s="35"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -5133,6 +5186,9 @@
       <c r="Y95" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F33:I33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
@@ -5142,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,13 +5221,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5324,13 +5380,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -5490,13 +5546,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
